--- a/results/I3_N5_M2_T45_C100_DepCentral_s1_mean_res.xlsx
+++ b/results/I3_N5_M2_T45_C100_DepCentral_s1_mean_res.xlsx
@@ -473,7 +473,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>2377.445140676498</v>
+        <v>837.2557288778274</v>
       </c>
     </row>
     <row r="4">
@@ -483,7 +483,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.3370001316070557</v>
+        <v>0.2820000648498535</v>
       </c>
     </row>
     <row r="5">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>32.35479209549518</v>
+        <v>25.77665327570422</v>
       </c>
     </row>
     <row r="7">
@@ -513,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>23.1433243460435</v>
+        <v>9.241189218116306</v>
       </c>
     </row>
     <row r="8">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>7.483672927198604</v>
+        <v>4.720264823079315</v>
       </c>
     </row>
     <row r="9">
@@ -533,7 +533,7 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>2360.749999999847</v>
+        <v>737.9999999971602</v>
       </c>
     </row>
     <row r="10">
@@ -543,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0</v>
+        <v>78</v>
       </c>
     </row>
   </sheetData>
@@ -557,7 +557,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C3"/>
+  <dimension ref="A1:C2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -584,23 +584,12 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="B2" t="n">
         <v>1</v>
       </c>
       <c r="C2" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="n">
-        <v>2</v>
-      </c>
-      <c r="B3" t="n">
-        <v>1</v>
-      </c>
-      <c r="C3" t="n">
         <v>1</v>
       </c>
     </row>
@@ -645,7 +634,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C2" t="n">
         <v>1</v>
@@ -656,7 +645,7 @@
         <v>0</v>
       </c>
       <c r="B3" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C3" t="n">
         <v>1</v>
@@ -667,7 +656,7 @@
         <v>1</v>
       </c>
       <c r="B4" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C4" t="n">
         <v>1</v>
@@ -678,7 +667,7 @@
         <v>2</v>
       </c>
       <c r="B5" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C5" t="n">
         <v>1</v>
@@ -689,7 +678,7 @@
         <v>3</v>
       </c>
       <c r="B6" t="n">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="C6" t="n">
         <v>1</v>
@@ -700,7 +689,7 @@
         <v>4</v>
       </c>
       <c r="B7" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C7" t="n">
         <v>1</v>
@@ -711,7 +700,7 @@
         <v>5</v>
       </c>
       <c r="B8" t="n">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="C8" t="n">
         <v>1</v>
@@ -791,7 +780,7 @@
         <v>4</v>
       </c>
       <c r="B5" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C5" t="n">
         <v>1</v>
@@ -874,7 +863,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>30</v>
+        <v>35.54582725987885</v>
       </c>
     </row>
     <row r="4">
@@ -882,7 +871,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>31.60181147454999</v>
+        <v>30</v>
       </c>
     </row>
     <row r="5">
@@ -890,7 +879,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>30</v>
+        <v>41.08570568301258</v>
       </c>
     </row>
     <row r="6">
@@ -898,7 +887,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>39.73709266206896</v>
+        <v>15</v>
       </c>
     </row>
     <row r="7">
@@ -906,7 +895,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>40.27973517692068</v>
+        <v>29.99999999967681</v>
       </c>
     </row>
     <row r="8">
@@ -936,7 +925,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D5"/>
+  <dimension ref="A1:D3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -971,7 +960,7 @@
         <v>1</v>
       </c>
       <c r="B2" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C2" t="n">
         <v>1</v>
@@ -982,43 +971,15 @@
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="B3" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="C3" t="n">
         <v>1</v>
       </c>
       <c r="D3" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="n">
-        <v>4</v>
-      </c>
-      <c r="B4" t="n">
-        <v>6</v>
-      </c>
-      <c r="C4" t="n">
-        <v>1</v>
-      </c>
-      <c r="D4" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="n">
-        <v>5</v>
-      </c>
-      <c r="B5" t="n">
-        <v>7</v>
-      </c>
-      <c r="C5" t="n">
-        <v>1</v>
-      </c>
-      <c r="D5" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1077,7 +1038,7 @@
         <v>1</v>
       </c>
       <c r="C3" t="n">
-        <v>128.4420000000173</v>
+        <v>163.1999999997175</v>
       </c>
     </row>
     <row r="4">
@@ -1088,7 +1049,7 @@
         <v>1</v>
       </c>
       <c r="C4" t="n">
-        <v>130.7890000000389</v>
+        <v>49.99999999999999</v>
       </c>
     </row>
     <row r="5">
@@ -1099,7 +1060,7 @@
         <v>1</v>
       </c>
       <c r="C5" t="n">
-        <v>82.84700000003977</v>
+        <v>110.5999999999985</v>
       </c>
     </row>
     <row r="6">
@@ -1110,7 +1071,7 @@
         <v>1</v>
       </c>
       <c r="C6" t="n">
-        <v>208.309000000039</v>
+        <v>43.8</v>
       </c>
     </row>
     <row r="7">
@@ -1121,7 +1082,7 @@
         <v>1</v>
       </c>
       <c r="C7" t="n">
-        <v>227.7659999999395</v>
+        <v>101.9999999997175</v>
       </c>
     </row>
     <row r="8">
@@ -1132,7 +1093,7 @@
         <v>1</v>
       </c>
       <c r="C8" t="n">
-        <v>208.3090000000649</v>
+        <v>163.1999999997175</v>
       </c>
     </row>
     <row r="9">
@@ -1143,7 +1104,7 @@
         <v>1</v>
       </c>
       <c r="C9" t="n">
-        <v>227.7659999999204</v>
+        <v>110.5999999999985</v>
       </c>
     </row>
   </sheetData>
@@ -1190,7 +1151,7 @@
         <v>1</v>
       </c>
       <c r="C2" t="n">
-        <v>108.3090000000646</v>
+        <v>63.19999999971748</v>
       </c>
     </row>
     <row r="3">
@@ -1201,7 +1162,7 @@
         <v>1</v>
       </c>
       <c r="C3" t="n">
-        <v>127.7659999999202</v>
+        <v>10.59999999999854</v>
       </c>
     </row>
   </sheetData>
@@ -1281,7 +1242,7 @@
         <v>1</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>7.8</v>
       </c>
     </row>
     <row r="6">
@@ -1306,7 +1267,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C5"/>
+  <dimension ref="A1:C4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1344,7 +1305,7 @@
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B3" t="n">
         <v>1</v>
@@ -1355,23 +1316,12 @@
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B4" t="n">
         <v>1</v>
       </c>
       <c r="C4" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="n">
-        <v>5</v>
-      </c>
-      <c r="B5" t="n">
-        <v>1</v>
-      </c>
-      <c r="C5" t="n">
         <v>1</v>
       </c>
     </row>
